--- a/Monthly_Modules_Report.xlsx
+++ b/Monthly_Modules_Report.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="dashboard" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Original Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,14 +414,5652 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>User ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Item Type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Item ID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Completion Status</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Completion date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>SF Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ADGD46</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CIB006</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>04/05/2024</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Association Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FHCH30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CIB006</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>04/15/2024</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Association Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JLJA83</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CIB006</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Association Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DBQE17</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CIB006</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Association Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EHFQ23</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CIB006</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>04/19/2024</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Association Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LWNU04</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CIB006</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Association Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ACEA51</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CIB006</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Association Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CTLE13</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CIB006</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>04/02/2024</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Association Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>JSPC29</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CIB006</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>04/24/2024</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Association Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TBFR63</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CIB006</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>04/17/2024</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Association Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MOHD79</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CIB006</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>90</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>04/15/2024</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Association Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NSJF48</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CIB006</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Association Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ADX991</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>81.69999999999999</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SNFR93</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>80.80000000000001</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>04/22/2024</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HYDM05</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>80</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LFPC61</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>04/10/2024</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RFKD44</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>04/22/2024</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ACEC21</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>04/15/2024</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MGIB93</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>80</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>04/23/2024</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NHML51</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>04/08/2024</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MLRD79</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>04/08/2024</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>KHMT16</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>80</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>04/16/2024</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SWNF32</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>85</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MFNE92</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>04/12/2024</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TDQK66</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>04/08/2024</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AFNS59</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>85</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>04/17/2024</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TTMF64</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>04/02/2024</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CAAF05</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>04/10/2024</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BJF832</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CIB007</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>04/30/2024</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Sexual Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DHAV25</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CIB008</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Deception (Fraud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ADGD46</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CIB008</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>04/16/2024</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Deception (Fraud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DCEW28</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CIB008</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>80</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>04/16/2024</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Deception (Fraud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PTFN62</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CIB008</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>04/18/2024</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Deception (Fraud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CMB054</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CIB008</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>04/10/2024</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Deception (Fraud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>IRCP40</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CIB008</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>80.80000000000001</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Deception (Fraud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>JBDQ11</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CIB008</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>80</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>04/08/2024</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Deception (Fraud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>JGCJ29</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CIB008</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>04/05/2024</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Deception (Fraud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HDMY54</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CIB008</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Deception (Fraud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CBNF72</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CIB008</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>90</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>04/23/2024</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Deception (Fraud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TBFR63</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CIB008</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>04/09/2024</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Deception (Fraud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>OPWA19</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CIB008</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>04/23/2024</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Deception (Fraud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NSJF48</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CIB008</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>100</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>04/30/2024</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Deception (Fraud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>KSKD19</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CIB008</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>04/17/2024</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Deception (Fraud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>GPEM38</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CIB009</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>81</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>04/18/2024</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Evidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AMIH20</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CIB009</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>98</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Evidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ARIY84</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CIB009</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>88</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Evidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BMFZ77</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CIB009</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>88</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>04/08/2024</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Evidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SNBA52</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CIB009</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>80</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>04/08/2024</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Evidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SNJK14</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CIB009</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>83</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Evidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>GHCJ35</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CIB009</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>96</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Evidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SBFR67</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CIB009</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>93</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>04/18/2024</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Evidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>JLIA97</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CIB009</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>90</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>04/02/2024</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Evidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>RGCX09</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CIB009</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Evidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>FBEE70</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CIB009</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>86</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>04/24/2024</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Evidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>JRCZ52</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CIB009</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>81</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>04/18/2024</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Evidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NHDX09</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CIB010</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Violence Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>AMAV39</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CIB010</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>04/12/2024</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Violence Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MMNU20</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CIB010</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>80.80000000000001</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>04/24/2024</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Violence Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>KBAL03</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CIB010</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>04/15/2024</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Violence Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>JENS99</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CIB010</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>04/12/2024</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Violence Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MHMT28</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CIB010</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Violence Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MUNE94</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CIB010</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>04/30/2024</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Violence Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>JKCGB2</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CIB010</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Violence Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>LWCI77</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CIB010</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>95</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>04/30/2024</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Violence Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CAAF05</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CIB010</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>04/22/2024</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Violence Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MLJF40</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CIB010</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>04/15/2024</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Violence Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>KCZ017</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CIB010</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>04/22/2024</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Violence Offences</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>JTHE23</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>04/02/2024</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>JFIH70</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>04/02/2024</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>LJEM41</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PHNF10</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>04/30/2024</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ELHD43</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>04/05/2024</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>KRFN54</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>85</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>LCGD70</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>04/23/2024</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>RLPI21</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ESQE19</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>04/16/2024</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>STQK64</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>04/19/2024</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>OPWA19</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SVFL06</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>95</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>04/26/2024</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MKNU22</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>04/16/2024</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>JWQU24</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>80</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>APMZ33</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>04/22/2024</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>KSKD19</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>JHI369</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>04/16/2024</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>DHHE03</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>89.60000000000001</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>AWMG20</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CIB011</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>04/17/2024</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>KKDU50</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>95.39999999999999</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>04/02/2024</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SCDJ12</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>04/09/2024</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>AMFZ57</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SALK16</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>04/02/2024</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>JMMT10</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>04/12/2024</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NRFP11</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>04/12/2024</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>FREH51</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>04/19/2024</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SGJW40</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>04/17/2024</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SWET69</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>90</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>04/22/2024</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>WRLY40</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>95</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>04/08/2024</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>DHLR84</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>04/19/2024</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SWJG24</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>JSQK25</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>04/05/2024</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>TKDF38</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>80</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>04/24/2024</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>WMW290</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>04/15/2024</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>JRCZ52</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>81.69999999999999</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>04/17/2024</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>KSKD19</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>04/09/2024</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>JHI369</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>100</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>04/08/2024</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>CLBA35</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CIB012</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>85</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Arson</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>KKDU50</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>85</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>DMZ306</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>93</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>04/12/2024</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>JHDU27</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>80</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>04/24/2024</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SADQ08</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>80</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>04/19/2024</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>WDIA71</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>93</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>04/18/2024</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ENLY88</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>92</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>04/05/2024</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>AMMF35</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>88</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>04/17/2024</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SPIL76</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>90</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>04/15/2024</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>CMB054</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>97</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>04/17/2024</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>KING20</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>88</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>04/18/2024</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>DBQE17</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>92</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>APJF08</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>GGNF92</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>04/02/2024</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>SENF28</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>97</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>04/24/2024</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>TCNM10</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>92</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>04/22/2024</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>FHFQ21</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>80</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>04/18/2024</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>HBPR32</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>CIB013</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>86</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Homicide Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>KKDU50</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>80</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>04/16/2024</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>MACI02</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>92</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>MAET03</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>80</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>PTFN62</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>95</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SKCO90</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>88</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>04/12/2024</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>WTIR90</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>04/09/2024</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>SNJK14</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>87</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>AMMF35</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>96</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>MSPI35</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>96</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>04/04/2024</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>CMB054</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>92</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>04/12/2024</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SCW336</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>96</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>04/10/2024</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SLF152</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>97</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>04/22/2024</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>JHNT11</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>85</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>CAI877</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>87</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>04/02/2024</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ASCH66</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>98</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>GGNF92</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>94</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>04/19/2024</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>JLML23</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>98</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>EHRE55</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>CIB014</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>94</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>04/24/2024</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Serious Crime Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>HCQU20</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>04/12/2024</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>KLFN06</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>04/22/2024</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>KRFN54</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>04/08/2024</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>RFEH21</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>96</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>04/22/2024</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SAJZ80</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>MSCS79</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>93</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>04/24/2024</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>LCJA24</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>96</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>04/16/2024</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SEQU64</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>91</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>04/02/2024</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>TSQD87</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>87</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>04/29/2024</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>CFEF64</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>100</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>04/15/2024</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>SWDV10</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>SWQZ00</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>97</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>04/12/2024</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ZSJW58</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>97</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>04/22/2024</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>MKNU22</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>04/04/2024</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>KODZ66</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>81</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>JBJF74</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>04/05/2024</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>LSMQ52</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>89</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>04/15/2024</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>JHI369</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>04/23/2024</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>SSJA69</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>CLBA35</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>CIB019</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>86</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>PASM</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>04/30/2024</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Search &amp; Surveillance Act</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -432,14 +6070,35 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Module Count</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Average Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B2" t="n">
+        <v>89.57625</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>